--- a/words_CZ/3.xlsx
+++ b/words_CZ/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F262E714-D5FD-47A1-A6E3-1A4D6990FD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB788FE-5664-429B-B93C-217E5B6642D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="2580" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,7 +373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -389,10 +387,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>

--- a/words_CZ/3.xlsx
+++ b/words_CZ/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F64C946-2154-40D2-AA4F-C2A4823C538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A652C0E9-C2DE-4B1D-8461-AE8DF7194906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="557">
   <si>
     <t>ale</t>
   </si>
@@ -72,18 +72,9 @@
     <t>mít se</t>
   </si>
   <si>
-    <t>na návštěvě</t>
-  </si>
-  <si>
     <t>nebo</t>
   </si>
   <si>
-    <t>něco k jídlu</t>
-  </si>
-  <si>
-    <t>něco k pití</t>
-  </si>
-  <si>
     <t>Není zač.</t>
   </si>
   <si>
@@ -99,81 +90,33 @@
     <t>pak</t>
   </si>
   <si>
-    <t>але, та, проте</t>
-  </si>
-  <si>
-    <t>но, однако, а</t>
-  </si>
-  <si>
-    <t>but, however</t>
-  </si>
-  <si>
-    <t>babička</t>
-  </si>
-  <si>
-    <t>бабуся, бабця</t>
-  </si>
-  <si>
     <t>бабушка</t>
   </si>
   <si>
-    <t>grandmother, granny</t>
-  </si>
-  <si>
     <t>бігати</t>
   </si>
   <si>
-    <t>бегать, бежать</t>
-  </si>
-  <si>
     <t>to run</t>
   </si>
   <si>
     <t>Ber si.</t>
   </si>
   <si>
-    <t>Бери.</t>
-  </si>
-  <si>
-    <t>Take it. (informal)</t>
-  </si>
-  <si>
     <t>Berte si.</t>
   </si>
   <si>
-    <t>Беріть.</t>
-  </si>
-  <si>
-    <t>Берите.</t>
-  </si>
-  <si>
-    <t>Take it. (formal/plural)</t>
-  </si>
-  <si>
-    <t>bílý</t>
-  </si>
-  <si>
     <t>білий</t>
   </si>
   <si>
     <t>белый</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>bílá</t>
-  </si>
-  <si>
     <t>біла</t>
   </si>
   <si>
     <t>белая</t>
   </si>
   <si>
-    <t>bílé</t>
-  </si>
-  <si>
     <t>біле</t>
   </si>
   <si>
@@ -189,30 +132,12 @@
     <t>unfortunately, sadly</t>
   </si>
   <si>
-    <t>bonbon</t>
-  </si>
-  <si>
-    <t>цукерка, бонбон</t>
-  </si>
-  <si>
-    <t>конфета, бонбон</t>
-  </si>
-  <si>
-    <t>candy, sweet, bonbon</t>
-  </si>
-  <si>
-    <t>bratr</t>
-  </si>
-  <si>
     <t>брат</t>
   </si>
   <si>
     <t>brother</t>
   </si>
   <si>
-    <t>bratranec</t>
-  </si>
-  <si>
     <t>двоюрідний брат, кузен</t>
   </si>
   <si>
@@ -222,117 +147,45 @@
     <t>cousin (male)</t>
   </si>
   <si>
-    <t>cédéčko</t>
-  </si>
-  <si>
-    <t>компакт-диск, CD</t>
-  </si>
-  <si>
-    <t>CD, compact disc</t>
-  </si>
-  <si>
-    <t>citron</t>
-  </si>
-  <si>
     <t>лимон</t>
   </si>
   <si>
     <t>lemon</t>
   </si>
   <si>
-    <t>citronový</t>
-  </si>
-  <si>
     <t>лимонний</t>
   </si>
   <si>
     <t>лимонный</t>
   </si>
   <si>
-    <t>lemon (adj.)</t>
-  </si>
-  <si>
-    <t>citronová</t>
-  </si>
-  <si>
     <t>лимонна</t>
   </si>
   <si>
     <t>лимонная</t>
   </si>
   <si>
-    <t>citronové</t>
-  </si>
-  <si>
     <t>лимонне</t>
   </si>
   <si>
     <t>лимонное</t>
   </si>
   <si>
-    <t>cizí</t>
-  </si>
-  <si>
-    <t>чужий, іноземний</t>
-  </si>
-  <si>
-    <t>чужой, иностранный</t>
-  </si>
-  <si>
-    <t>foreign, strange, alien</t>
-  </si>
-  <si>
     <t>Co si dáš k pití?</t>
   </si>
   <si>
-    <t>Що ти будеш пити?, Що тобі випити?</t>
-  </si>
-  <si>
-    <t>Что ты будешь пить?</t>
-  </si>
-  <si>
-    <t>What would you like to drink? (informal)</t>
-  </si>
-  <si>
     <t>Co si dáte k pití?</t>
   </si>
   <si>
-    <t>Що Ви будете пити?, Що Вам випити?</t>
-  </si>
-  <si>
-    <t>Что Вы будете пить?</t>
-  </si>
-  <si>
-    <t>What would you like to drink? (formal/plural)</t>
-  </si>
-  <si>
     <t>Co si dáš?</t>
   </si>
   <si>
-    <t>Що ти будеш?, Що тобі?</t>
-  </si>
-  <si>
-    <t>Что ты будешь?, Что тебе?</t>
-  </si>
-  <si>
     <t>What will you have? (informal)</t>
   </si>
   <si>
     <t>Co si dáte?</t>
   </si>
   <si>
-    <t>Що Ви будете?, Що Вам?</t>
-  </si>
-  <si>
-    <t>Что Вы будете?, Что Вам?</t>
-  </si>
-  <si>
-    <t>What will you have? (formal/plural)</t>
-  </si>
-  <si>
-    <t>cukr</t>
-  </si>
-  <si>
     <t>цукор</t>
   </si>
   <si>
@@ -342,9 +195,6 @@
     <t>sugar</t>
   </si>
   <si>
-    <t>čaj</t>
-  </si>
-  <si>
     <t>чай</t>
   </si>
   <si>
@@ -354,69 +204,30 @@
     <t>čekat na</t>
   </si>
   <si>
-    <t>чекати на</t>
-  </si>
-  <si>
-    <t>ждать, ожидать</t>
-  </si>
-  <si>
     <t>to wait for</t>
   </si>
   <si>
-    <t>černý</t>
-  </si>
-  <si>
     <t>чорний</t>
   </si>
   <si>
-    <t>черный</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>černá</t>
-  </si>
-  <si>
     <t>чорна</t>
   </si>
   <si>
-    <t>черная</t>
-  </si>
-  <si>
-    <t>černé</t>
-  </si>
-  <si>
     <t>чорне</t>
   </si>
   <si>
-    <t>черное</t>
-  </si>
-  <si>
-    <t>červený</t>
-  </si>
-  <si>
     <t>червоний</t>
   </si>
   <si>
     <t>красный</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>červená</t>
-  </si>
-  <si>
     <t>червона</t>
   </si>
   <si>
     <t>красная</t>
   </si>
   <si>
-    <t>červené</t>
-  </si>
-  <si>
     <t>червоне</t>
   </si>
   <si>
@@ -426,45 +237,27 @@
     <t>чий, чия, чиє</t>
   </si>
   <si>
-    <t>чей, чья, чье</t>
-  </si>
-  <si>
     <t>whose</t>
   </si>
   <si>
-    <t>čokoláda</t>
-  </si>
-  <si>
     <t>шоколад</t>
   </si>
   <si>
     <t>chocolate</t>
   </si>
   <si>
-    <t>čokoládový</t>
-  </si>
-  <si>
     <t>шоколадний</t>
   </si>
   <si>
     <t>шоколадный</t>
   </si>
   <si>
-    <t>chocolate (adj.)</t>
-  </si>
-  <si>
-    <t>čokoládová</t>
-  </si>
-  <si>
     <t>шоколадна</t>
   </si>
   <si>
     <t>шоколадная</t>
   </si>
   <si>
-    <t>čokoládové</t>
-  </si>
-  <si>
     <t>шоколадне</t>
   </si>
   <si>
@@ -474,18 +267,6 @@
     <t>Dám si</t>
   </si>
   <si>
-    <t>Я візьму, Я буду, Я замовлю</t>
-  </si>
-  <si>
-    <t>Я возьму, Я буду, Я закажу</t>
-  </si>
-  <si>
-    <t>I'll have, I'll take, I'll order</t>
-  </si>
-  <si>
-    <t>dárek</t>
-  </si>
-  <si>
     <t>подарунок</t>
   </si>
   <si>
@@ -516,57 +297,15 @@
     <t>Будете что-нибудь пить?</t>
   </si>
   <si>
-    <t>Would you like something to drink? (formal/plural)</t>
-  </si>
-  <si>
     <t>dát si</t>
   </si>
   <si>
-    <t>взяти собі, замовити собі, з'їсти/випити</t>
-  </si>
-  <si>
-    <t>взять себе, заказать себе, съесть/выпить</t>
-  </si>
-  <si>
-    <t>to have, to take, to order (food/drink)</t>
-  </si>
-  <si>
-    <t>dcera</t>
-  </si>
-  <si>
-    <t>донька, дочка</t>
-  </si>
-  <si>
-    <t>дочь</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>dědeček</t>
-  </si>
-  <si>
-    <t>дідусь, дід</t>
-  </si>
-  <si>
     <t>дедушка</t>
   </si>
   <si>
-    <t>grandfather, grandpa</t>
-  </si>
-  <si>
-    <t>робити, займатися</t>
-  </si>
-  <si>
-    <t>делать, заниматься</t>
-  </si>
-  <si>
-    <t>to do, to make, to work (as)</t>
-  </si>
-  <si>
-    <t>děti</t>
-  </si>
-  <si>
     <t>діти</t>
   </si>
   <si>
@@ -576,15 +315,9 @@
     <t>children</t>
   </si>
   <si>
-    <t>dítě</t>
-  </si>
-  <si>
     <t>дитина</t>
   </si>
   <si>
-    <t>ребенок, дитя</t>
-  </si>
-  <si>
     <t>child</t>
   </si>
   <si>
@@ -597,18 +330,9 @@
     <t>смотреть на</t>
   </si>
   <si>
-    <t>to watch, to look at</t>
-  </si>
-  <si>
-    <t>dívka</t>
-  </si>
-  <si>
     <t>дівчина</t>
   </si>
   <si>
-    <t>девушка</t>
-  </si>
-  <si>
     <t>girl</t>
   </si>
   <si>
@@ -627,51 +351,9 @@
     <t>Приятного аппетита.</t>
   </si>
   <si>
-    <t>Enjoy your meal.</t>
-  </si>
-  <si>
-    <t>dort</t>
-  </si>
-  <si>
     <t>торт</t>
   </si>
   <si>
-    <t>cake, tart</t>
-  </si>
-  <si>
-    <t>drahý</t>
-  </si>
-  <si>
-    <t>дорогий, коштовний</t>
-  </si>
-  <si>
-    <t>дорогой, ценный</t>
-  </si>
-  <si>
-    <t>expensive, dear, costly</t>
-  </si>
-  <si>
-    <t>drahá</t>
-  </si>
-  <si>
-    <t>дорога, коштовна</t>
-  </si>
-  <si>
-    <t>дорогая, ценная</t>
-  </si>
-  <si>
-    <t>drahé</t>
-  </si>
-  <si>
-    <t>дороге, коштовне</t>
-  </si>
-  <si>
-    <t>дорогое, ценное</t>
-  </si>
-  <si>
-    <t>džus</t>
-  </si>
-  <si>
     <t>сік, джус</t>
   </si>
   <si>
@@ -681,30 +363,9 @@
     <t>juice</t>
   </si>
   <si>
-    <t>film</t>
-  </si>
-  <si>
-    <t>фільм, кіно</t>
-  </si>
-  <si>
-    <t>фильм, кино</t>
-  </si>
-  <si>
     <t>film, movie</t>
   </si>
   <si>
-    <t>fotografie</t>
-  </si>
-  <si>
-    <t>фотографія, світлина</t>
-  </si>
-  <si>
-    <t>фотография, снимок</t>
-  </si>
-  <si>
-    <t>photograph, picture</t>
-  </si>
-  <si>
     <t>hledat</t>
   </si>
   <si>
@@ -717,60 +378,6 @@
     <t>to look for, to search</t>
   </si>
   <si>
-    <t>зараз, негайно, відразу</t>
-  </si>
-  <si>
-    <t>сейчас, немедленно, сразу</t>
-  </si>
-  <si>
-    <t>immediately, right now, at once</t>
-  </si>
-  <si>
-    <t>holka</t>
-  </si>
-  <si>
-    <t>дівчина, дівча</t>
-  </si>
-  <si>
-    <t>девчонка, девушка</t>
-  </si>
-  <si>
-    <t>girl, lass (informal)</t>
-  </si>
-  <si>
-    <t>horký</t>
-  </si>
-  <si>
-    <t>гарячий, жаркий</t>
-  </si>
-  <si>
-    <t>горячий, жаркий</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>horká</t>
-  </si>
-  <si>
-    <t>гаряча, жарка</t>
-  </si>
-  <si>
-    <t>горячая, жаркая</t>
-  </si>
-  <si>
-    <t>horké</t>
-  </si>
-  <si>
-    <t>гаряче, жарке</t>
-  </si>
-  <si>
-    <t>горячее, жаркое</t>
-  </si>
-  <si>
-    <t>hudba</t>
-  </si>
-  <si>
     <t>музика</t>
   </si>
   <si>
@@ -780,21 +387,12 @@
     <t>music</t>
   </si>
   <si>
-    <t>chlapec</t>
-  </si>
-  <si>
-    <t>хлопець</t>
-  </si>
-  <si>
     <t>мальчик, парень</t>
   </si>
   <si>
     <t>boy</t>
   </si>
   <si>
-    <t>chléb</t>
-  </si>
-  <si>
     <t>хліб</t>
   </si>
   <si>
@@ -804,18 +402,6 @@
     <t>bread</t>
   </si>
   <si>
-    <t>chleba</t>
-  </si>
-  <si>
-    <t>хліб (у розмовній)</t>
-  </si>
-  <si>
-    <t>bread (colloquial)</t>
-  </si>
-  <si>
-    <t>Chtěl bych</t>
-  </si>
-  <si>
     <t>Я хотів би</t>
   </si>
   <si>
@@ -825,30 +411,12 @@
     <t>I would like (male)</t>
   </si>
   <si>
-    <t>Chtěla bych</t>
-  </si>
-  <si>
-    <t>Я хотіла б</t>
-  </si>
-  <si>
     <t>Я хотела бы</t>
   </si>
   <si>
     <t>I would like (female)</t>
   </si>
   <si>
-    <t>і, також, навіть</t>
-  </si>
-  <si>
-    <t>и, также, даже</t>
-  </si>
-  <si>
-    <t>and, also, even</t>
-  </si>
-  <si>
-    <t>його, ним</t>
-  </si>
-  <si>
     <t>его</t>
   </si>
   <si>
@@ -861,24 +429,12 @@
     <t>її</t>
   </si>
   <si>
-    <t>ее</t>
-  </si>
-  <si>
-    <t>her, hers, its</t>
-  </si>
-  <si>
-    <t>їх, їхній</t>
-  </si>
-  <si>
     <t>их</t>
   </si>
   <si>
     <t>their, theirs</t>
   </si>
   <si>
-    <t>jídlo</t>
-  </si>
-  <si>
     <t>їжа, страва</t>
   </si>
   <si>
@@ -888,51 +444,24 @@
     <t>food, meal</t>
   </si>
   <si>
-    <t>щось поїсти, щось до їжі</t>
-  </si>
-  <si>
-    <t>что-нибудь поесть, что-то к еде</t>
-  </si>
-  <si>
     <t>something to eat</t>
   </si>
   <si>
-    <t>jogurt</t>
-  </si>
-  <si>
     <t>йогурт</t>
   </si>
   <si>
     <t>yogurt</t>
   </si>
   <si>
-    <t>kamarád</t>
-  </si>
-  <si>
-    <t>друг, приятель, товариш</t>
-  </si>
-  <si>
-    <t>друг, приятель, товарищ</t>
-  </si>
-  <si>
     <t>friend (male)</t>
   </si>
   <si>
-    <t>kamarádka</t>
-  </si>
-  <si>
-    <t>подруга, приятелька, товаришка</t>
-  </si>
-  <si>
     <t>подруга, приятельница</t>
   </si>
   <si>
     <t>friend (female)</t>
   </si>
   <si>
-    <t>káva</t>
-  </si>
-  <si>
     <t>кава</t>
   </si>
   <si>
@@ -942,84 +471,24 @@
     <t>coffee</t>
   </si>
   <si>
-    <t>kluk</t>
-  </si>
-  <si>
-    <t>хлопець, пацан</t>
-  </si>
-  <si>
-    <t>парень, мальчик</t>
-  </si>
-  <si>
-    <t>boy, lad, guy (informal)</t>
-  </si>
-  <si>
-    <t>kniha</t>
-  </si>
-  <si>
     <t>книга</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
-    <t>kočka</t>
-  </si>
-  <si>
-    <t>кішка, киця</t>
-  </si>
-  <si>
-    <t>кошка</t>
-  </si>
-  <si>
-    <t>cat (female)</t>
-  </si>
-  <si>
-    <t>kola</t>
-  </si>
-  <si>
-    <t>кола</t>
-  </si>
-  <si>
-    <t>cola, coke</t>
-  </si>
-  <si>
-    <t>kolega</t>
-  </si>
-  <si>
-    <t>колега, співробітник</t>
-  </si>
-  <si>
-    <t>коллега, сотрудник</t>
-  </si>
-  <si>
     <t>colleague (male)</t>
   </si>
   <si>
-    <t>kolegyně</t>
-  </si>
-  <si>
-    <t>колега, співробітниця</t>
-  </si>
-  <si>
-    <t>коллега, сотрудница</t>
-  </si>
-  <si>
     <t>colleague (female)</t>
   </si>
   <si>
-    <t>kultura</t>
-  </si>
-  <si>
     <t>культура</t>
   </si>
   <si>
     <t>culture</t>
   </si>
   <si>
-    <t>květina</t>
-  </si>
-  <si>
     <t>квітка</t>
   </si>
   <si>
@@ -1029,51 +498,15 @@
     <t>flower</t>
   </si>
   <si>
-    <t>kytka</t>
-  </si>
-  <si>
-    <t>квітка, букет (у розмовній)</t>
-  </si>
-  <si>
-    <t>цветок, букет</t>
-  </si>
-  <si>
-    <t>flower, posy (informal)</t>
-  </si>
-  <si>
-    <t>levný</t>
-  </si>
-  <si>
     <t>дешевий</t>
   </si>
   <si>
-    <t>дешевый</t>
-  </si>
-  <si>
-    <t>cheap, inexpensive</t>
-  </si>
-  <si>
-    <t>levná</t>
-  </si>
-  <si>
     <t>дешева</t>
   </si>
   <si>
-    <t>дешевая</t>
-  </si>
-  <si>
-    <t>levné</t>
-  </si>
-  <si>
     <t>дешеве</t>
   </si>
   <si>
-    <t>дешевое</t>
-  </si>
-  <si>
-    <t>literatura</t>
-  </si>
-  <si>
     <t>література</t>
   </si>
   <si>
@@ -1083,57 +516,24 @@
     <t>literature</t>
   </si>
   <si>
-    <t>máma</t>
-  </si>
-  <si>
     <t>мама, матуся</t>
   </si>
   <si>
     <t>мама</t>
   </si>
   <si>
-    <t>mom, mum (informal)</t>
-  </si>
-  <si>
-    <t>maminka</t>
-  </si>
-  <si>
-    <t>матуся, ненька</t>
-  </si>
-  <si>
-    <t>мамочка, мама</t>
-  </si>
-  <si>
-    <t>mommy, mum (dear)</t>
-  </si>
-  <si>
-    <t>manžel</t>
-  </si>
-  <si>
-    <t>чоловік, муж</t>
-  </si>
-  <si>
     <t>муж, супруг</t>
   </si>
   <si>
     <t>husband</t>
   </si>
   <si>
-    <t>manželka</t>
-  </si>
-  <si>
-    <t>дружина, жінка</t>
-  </si>
-  <si>
     <t>жена, супруга</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>maso</t>
-  </si>
-  <si>
     <t>м'ясо</t>
   </si>
   <si>
@@ -1146,508 +546,1165 @@
     <t>Máš pravdu.</t>
   </si>
   <si>
+    <t>You are right. (informal)</t>
+  </si>
+  <si>
+    <t>Máte pravdu.</t>
+  </si>
+  <si>
+    <t>Ви маєте рацію., Ваша правда.</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>mít</t>
+  </si>
+  <si>
+    <t>to have</t>
+  </si>
+  <si>
+    <t>mám</t>
+  </si>
+  <si>
+    <t>I have</t>
+  </si>
+  <si>
+    <t>молоко</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>море</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>мій</t>
+  </si>
+  <si>
+    <t>мой</t>
+  </si>
+  <si>
+    <t>моя</t>
+  </si>
+  <si>
+    <t>моє</t>
+  </si>
+  <si>
+    <t>on a visit, visiting</t>
+  </si>
+  <si>
+    <t>наш</t>
+  </si>
+  <si>
+    <t>або, чи</t>
+  </si>
+  <si>
+    <t>или, либо</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>something to drink</t>
+  </si>
+  <si>
+    <t>Нема за що., Прошу.</t>
+  </si>
+  <si>
+    <t>Не за что., Пожалуйста.</t>
+  </si>
+  <si>
+    <t>You're welcome., Don't mention it.</t>
+  </si>
+  <si>
+    <t>негазированный</t>
+  </si>
+  <si>
+    <t>негазированная</t>
+  </si>
+  <si>
+    <t>негазированное</t>
+  </si>
+  <si>
+    <t>Нічого не сталося., Нічого страшного.</t>
+  </si>
+  <si>
+    <t>Ничего не случилось., Ничего страшного.</t>
+  </si>
+  <si>
+    <t>objednat</t>
+  </si>
+  <si>
+    <t>замовити</t>
+  </si>
+  <si>
+    <t>заказать</t>
+  </si>
+  <si>
+    <t>objednat si</t>
+  </si>
+  <si>
+    <t>to order (for oneself)</t>
+  </si>
+  <si>
+    <t>відпочивати</t>
+  </si>
+  <si>
+    <t>отдыхать</t>
+  </si>
+  <si>
+    <t>to rest, to relax</t>
+  </si>
+  <si>
+    <t>To je OK.</t>
+  </si>
+  <si>
+    <t>OK.</t>
+  </si>
+  <si>
+    <t>питання, запитання</t>
+  </si>
+  <si>
+    <t>вопрос</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>батько, тато</t>
+  </si>
+  <si>
+    <t>отец, папа</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>фруктовий</t>
+  </si>
+  <si>
+    <t>фруктовый</t>
+  </si>
+  <si>
+    <t>фруктова</t>
+  </si>
+  <si>
+    <t>фруктовая</t>
+  </si>
+  <si>
+    <t>фруктове</t>
+  </si>
+  <si>
+    <t>фруктовое</t>
+  </si>
+  <si>
+    <t>партнер</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>але</t>
+  </si>
+  <si>
+    <t>но, а</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>(Ž) babička</t>
+  </si>
+  <si>
+    <t>бабуся</t>
+  </si>
+  <si>
+    <t>grandmother</t>
+  </si>
+  <si>
+    <t>бегать</t>
+  </si>
+  <si>
+    <t>Бери., Пригощайся.</t>
+  </si>
+  <si>
+    <t>Бери., Угощайся.</t>
+  </si>
+  <si>
+    <t>Take some., Help yourself. (informal)</t>
+  </si>
+  <si>
+    <t>Беріть., Пригощайтесь.</t>
+  </si>
+  <si>
+    <t>Берите., Угощайтесь.</t>
+  </si>
+  <si>
+    <t>Take some., Help yourself. (formal)</t>
+  </si>
+  <si>
+    <t>(M) bílý</t>
+  </si>
+  <si>
+    <t>white (male)</t>
+  </si>
+  <si>
+    <t>(Ž) bílá</t>
+  </si>
+  <si>
+    <t>white (female)</t>
+  </si>
+  <si>
+    <t>(S) bílé</t>
+  </si>
+  <si>
+    <t>white (neuter)</t>
+  </si>
+  <si>
+    <t>(M) bonbon</t>
+  </si>
+  <si>
+    <t>цукерка</t>
+  </si>
+  <si>
+    <t>конфета</t>
+  </si>
+  <si>
+    <t>candy, sweet</t>
+  </si>
+  <si>
+    <t>(M) bratr</t>
+  </si>
+  <si>
+    <t>(M) bratranec</t>
+  </si>
+  <si>
+    <t>(S) cédéčko</t>
+  </si>
+  <si>
+    <t>CD-диск, компакт-диск</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>(M) citron</t>
+  </si>
+  <si>
+    <t>(M) citronový</t>
+  </si>
+  <si>
+    <t>lemon (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) citronová</t>
+  </si>
+  <si>
+    <t>(S) citronové</t>
+  </si>
+  <si>
+    <t>(M) cizí</t>
+  </si>
+  <si>
+    <t>чужий</t>
+  </si>
+  <si>
+    <t>чужой</t>
+  </si>
+  <si>
+    <t>foreign, strange (male)</t>
+  </si>
+  <si>
+    <t>(Ž) cizí</t>
+  </si>
+  <si>
+    <t>чужа</t>
+  </si>
+  <si>
+    <t>чужая</t>
+  </si>
+  <si>
+    <t>foreign, strange (female)</t>
+  </si>
+  <si>
+    <t>(S) cizí</t>
+  </si>
+  <si>
+    <t>чуже</t>
+  </si>
+  <si>
+    <t>чужое</t>
+  </si>
+  <si>
+    <t>foreign, strange (neuter)</t>
+  </si>
+  <si>
+    <t>Що будеш пити?</t>
+  </si>
+  <si>
+    <t>Что будешь пить?</t>
+  </si>
+  <si>
+    <t>What will you have to drink? (informal)</t>
+  </si>
+  <si>
+    <t>Що будете пити?</t>
+  </si>
+  <si>
+    <t>Что будете пить?</t>
+  </si>
+  <si>
+    <t>What will you have to drink? (formal)</t>
+  </si>
+  <si>
+    <t>Що будеш?, Що замовиш?</t>
+  </si>
+  <si>
+    <t>Что будешь?, Что закажешь?</t>
+  </si>
+  <si>
+    <t>Що будете?, Що замовите?</t>
+  </si>
+  <si>
+    <t>Что будете?, Что закажете?</t>
+  </si>
+  <si>
+    <t>What will you have? (formal)</t>
+  </si>
+  <si>
+    <t>(M) cukr</t>
+  </si>
+  <si>
+    <t>(M) čaj</t>
+  </si>
+  <si>
+    <t>чекати на, чекати (когось)</t>
+  </si>
+  <si>
+    <t>ждать (кого-то, что-то)</t>
+  </si>
+  <si>
+    <t>(M) černý</t>
+  </si>
+  <si>
+    <t>чёрный</t>
+  </si>
+  <si>
+    <t>black (male)</t>
+  </si>
+  <si>
+    <t>(Ž) černá</t>
+  </si>
+  <si>
+    <t>чёрная</t>
+  </si>
+  <si>
+    <t>black (female)</t>
+  </si>
+  <si>
+    <t>(S) černé</t>
+  </si>
+  <si>
+    <t>чёрное</t>
+  </si>
+  <si>
+    <t>black (neuter)</t>
+  </si>
+  <si>
+    <t>(M) červený</t>
+  </si>
+  <si>
+    <t>red (male)</t>
+  </si>
+  <si>
+    <t>(Ž) červená</t>
+  </si>
+  <si>
+    <t>red (female)</t>
+  </si>
+  <si>
+    <t>(S) červené</t>
+  </si>
+  <si>
+    <t>red (neuter)</t>
+  </si>
+  <si>
+    <t>чей, чья, чьё</t>
+  </si>
+  <si>
+    <t>(Ž) čokoláda</t>
+  </si>
+  <si>
+    <t>(M) čokoládový</t>
+  </si>
+  <si>
+    <t>chocolate (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) čokoládová</t>
+  </si>
+  <si>
+    <t>(S) čokoládové</t>
+  </si>
+  <si>
+    <t>Я візьму (собі), Я замовлю</t>
+  </si>
+  <si>
+    <t>Я возьму (себе), Я закажу</t>
+  </si>
+  <si>
+    <t>I'll have...</t>
+  </si>
+  <si>
+    <t>(M) dárek</t>
+  </si>
+  <si>
+    <t>Would you like something to drink? (formal)</t>
+  </si>
+  <si>
+    <t>взяти (собі), замовити (їжу, напій)</t>
+  </si>
+  <si>
+    <t>взять (себе), заказать</t>
+  </si>
+  <si>
+    <t>to have (food, drink)</t>
+  </si>
+  <si>
+    <t>(Ž) dcera</t>
+  </si>
+  <si>
+    <t>дочка, донька</t>
+  </si>
+  <si>
+    <t>дочь, дочка</t>
+  </si>
+  <si>
+    <t>(M) dědeček</t>
+  </si>
+  <si>
+    <t>дідусь</t>
+  </si>
+  <si>
+    <t>grandfather</t>
+  </si>
+  <si>
+    <t>робити</t>
+  </si>
+  <si>
+    <t>делать</t>
+  </si>
+  <si>
+    <t>to do, to make</t>
+  </si>
+  <si>
+    <t>(Pl) děti</t>
+  </si>
+  <si>
+    <t>(S) dítě</t>
+  </si>
+  <si>
+    <t>ребёнок</t>
+  </si>
+  <si>
+    <t>to look at, to watch</t>
+  </si>
+  <si>
+    <t>(Ž) dívka</t>
+  </si>
+  <si>
+    <t>девушка, девочка</t>
+  </si>
+  <si>
+    <t>Enjoy your meal., Bon appétit.</t>
+  </si>
+  <si>
+    <t>(M) dort</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>(M) drahý</t>
+  </si>
+  <si>
+    <t>дорогий</t>
+  </si>
+  <si>
+    <t>дорогой, милый</t>
+  </si>
+  <si>
+    <t>expensive, dear (male)</t>
+  </si>
+  <si>
+    <t>(Ž) drahá</t>
+  </si>
+  <si>
+    <t>дорога</t>
+  </si>
+  <si>
+    <t>дорогая, милая</t>
+  </si>
+  <si>
+    <t>expensive, dear (female)</t>
+  </si>
+  <si>
+    <t>(S) drahé</t>
+  </si>
+  <si>
+    <t>дороге</t>
+  </si>
+  <si>
+    <t>дорогое, милое</t>
+  </si>
+  <si>
+    <t>expensive, dear (neuter)</t>
+  </si>
+  <si>
+    <t>(M) džus</t>
+  </si>
+  <si>
+    <t>(M) film</t>
+  </si>
+  <si>
+    <t>фільм</t>
+  </si>
+  <si>
+    <t>фильм</t>
+  </si>
+  <si>
+    <t>(Ž) fotografie</t>
+  </si>
+  <si>
+    <t>фотографія, фото</t>
+  </si>
+  <si>
+    <t>фотография, фото</t>
+  </si>
+  <si>
+    <t>photograph, photo</t>
+  </si>
+  <si>
+    <t>одразу, негайно</t>
+  </si>
+  <si>
+    <t>сразу, немедленно</t>
+  </si>
+  <si>
+    <t>right away, immediately</t>
+  </si>
+  <si>
+    <t>(Ž) holka</t>
+  </si>
+  <si>
+    <t>дівчина, дівчинка</t>
+  </si>
+  <si>
+    <t>девочка, девчонка</t>
+  </si>
+  <si>
+    <t>(M) horký</t>
+  </si>
+  <si>
+    <t>гарячий</t>
+  </si>
+  <si>
+    <t>горячий</t>
+  </si>
+  <si>
+    <t>hot (male)</t>
+  </si>
+  <si>
+    <t>(Ž) horká</t>
+  </si>
+  <si>
+    <t>гаряча</t>
+  </si>
+  <si>
+    <t>горячая</t>
+  </si>
+  <si>
+    <t>hot (female)</t>
+  </si>
+  <si>
+    <t>(S) horké</t>
+  </si>
+  <si>
+    <t>гаряче</t>
+  </si>
+  <si>
+    <t>горячее</t>
+  </si>
+  <si>
+    <t>hot (neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) hudba</t>
+  </si>
+  <si>
+    <t>(M) chlapec</t>
+  </si>
+  <si>
+    <t>хлопець, хлопчик</t>
+  </si>
+  <si>
+    <t>(M) chléb</t>
+  </si>
+  <si>
+    <t>(M) chleba</t>
+  </si>
+  <si>
+    <t>(M) Chtěl bych</t>
+  </si>
+  <si>
+    <t>(Ž) Chtěla bych</t>
+  </si>
+  <si>
+    <t>Я хотіла би</t>
+  </si>
+  <si>
+    <t>і, та, також</t>
+  </si>
+  <si>
+    <t>и, также</t>
+  </si>
+  <si>
+    <t>and, also, too</t>
+  </si>
+  <si>
+    <t>його</t>
+  </si>
+  <si>
+    <t>её</t>
+  </si>
+  <si>
+    <t>her, hers</t>
+  </si>
+  <si>
+    <t>їхній, їх</t>
+  </si>
+  <si>
+    <t>(S) jídlo</t>
+  </si>
+  <si>
+    <t>něco k (S) jídlu</t>
+  </si>
+  <si>
+    <t>щось поїсти, щось з їжі</t>
+  </si>
+  <si>
+    <t>что-нибудь поесть, что-то из еды</t>
+  </si>
+  <si>
+    <t>(M) jogurt</t>
+  </si>
+  <si>
+    <t>(M) kamarád</t>
+  </si>
+  <si>
+    <t>друг, товариш</t>
+  </si>
+  <si>
+    <t>друг, приятель</t>
+  </si>
+  <si>
+    <t>(Ž) kamarádka</t>
+  </si>
+  <si>
+    <t>подруга, товаришка</t>
+  </si>
+  <si>
+    <t>(Ž) káva</t>
+  </si>
+  <si>
+    <t>(M) kluk</t>
+  </si>
+  <si>
+    <t>(Ž) kniha</t>
+  </si>
+  <si>
+    <t>книга, книжка</t>
+  </si>
+  <si>
+    <t>(Ž) kočka</t>
+  </si>
+  <si>
+    <t>кішка, кицька</t>
+  </si>
+  <si>
+    <t>кошка, кот</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>(Ž) kola</t>
+  </si>
+  <si>
+    <t>кола (напій)</t>
+  </si>
+  <si>
+    <t>кола (напиток)</t>
+  </si>
+  <si>
+    <t>coke, cola</t>
+  </si>
+  <si>
+    <t>(M) kolega</t>
+  </si>
+  <si>
+    <t>колега</t>
+  </si>
+  <si>
+    <t>коллега (мужчина)</t>
+  </si>
+  <si>
+    <t>(Ž) kolegyně</t>
+  </si>
+  <si>
+    <t>колега (жінка)</t>
+  </si>
+  <si>
+    <t>коллега (женщина)</t>
+  </si>
+  <si>
+    <t>(Ž) kultura</t>
+  </si>
+  <si>
+    <t>(Ž) květina</t>
+  </si>
+  <si>
+    <t>(Ž) kytka</t>
+  </si>
+  <si>
+    <t>квітка, букет</t>
+  </si>
+  <si>
+    <t>цветок, букетик</t>
+  </si>
+  <si>
+    <t>flower, bunch of flowers</t>
+  </si>
+  <si>
+    <t>(M) levný</t>
+  </si>
+  <si>
+    <t>дешёвый</t>
+  </si>
+  <si>
+    <t>cheap, inexpensive (male)</t>
+  </si>
+  <si>
+    <t>(Ž) levná</t>
+  </si>
+  <si>
+    <t>дешёвая</t>
+  </si>
+  <si>
+    <t>cheap, inexpensive (female)</t>
+  </si>
+  <si>
+    <t>(S) levné</t>
+  </si>
+  <si>
+    <t>дешёвое</t>
+  </si>
+  <si>
+    <t>cheap, inexpensive (neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) literatura</t>
+  </si>
+  <si>
+    <t>(Ž) máma</t>
+  </si>
+  <si>
+    <t>mom, mum</t>
+  </si>
+  <si>
+    <t>(Ž) maminka</t>
+  </si>
+  <si>
+    <t>мама, мамочка</t>
+  </si>
+  <si>
+    <t>mommy, mummy</t>
+  </si>
+  <si>
+    <t>(M) manžel</t>
+  </si>
+  <si>
+    <t>чоловік (у шлюбі)</t>
+  </si>
+  <si>
+    <t>(Ž) manželka</t>
+  </si>
+  <si>
+    <t>дружина, жінка (у шлюбі)</t>
+  </si>
+  <si>
+    <t>(S) maso</t>
+  </si>
+  <si>
     <t>Ти маєш рацію., Твоя правда.</t>
   </si>
   <si>
-    <t>Ты прав., Твоя правда.</t>
-  </si>
-  <si>
-    <t>You are right. (informal)</t>
-  </si>
-  <si>
-    <t>Máte pravdu.</t>
-  </si>
-  <si>
-    <t>Ви маєте рацію., Ваша правда.</t>
-  </si>
-  <si>
-    <t>Вы правы., Ваша правда.</t>
-  </si>
-  <si>
-    <t>You are right. (formal/plural)</t>
-  </si>
-  <si>
-    <t>matka</t>
-  </si>
-  <si>
-    <t>мати, матір</t>
-  </si>
-  <si>
-    <t>мать</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>mít rád</t>
-  </si>
-  <si>
-    <t>любити, подобатися (для чоловіка)</t>
-  </si>
-  <si>
-    <t>любить, нравиться</t>
-  </si>
-  <si>
-    <t>to like, to love (male speaker)</t>
-  </si>
-  <si>
-    <t>mít ráda</t>
-  </si>
-  <si>
-    <t>любити, подобатися (для жінки)</t>
-  </si>
-  <si>
-    <t>to like, to love (female speaker)</t>
-  </si>
-  <si>
-    <t>почуватися, мати справи</t>
-  </si>
-  <si>
-    <t>поживать, чувствовать себя</t>
-  </si>
-  <si>
-    <t>to be (doing), to feel</t>
-  </si>
-  <si>
-    <t>mít</t>
-  </si>
-  <si>
-    <t>мати, володіти</t>
-  </si>
-  <si>
-    <t>иметь, обладать</t>
-  </si>
-  <si>
-    <t>to have</t>
-  </si>
-  <si>
-    <t>mám</t>
-  </si>
-  <si>
-    <t>я маю</t>
-  </si>
-  <si>
-    <t>у меня есть, я имею</t>
-  </si>
-  <si>
-    <t>I have</t>
-  </si>
-  <si>
-    <t>mléko</t>
-  </si>
-  <si>
-    <t>молоко</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>moře</t>
-  </si>
-  <si>
-    <t>море</t>
-  </si>
-  <si>
-    <t>sea</t>
-  </si>
-  <si>
-    <t>můj</t>
-  </si>
-  <si>
-    <t>мій</t>
-  </si>
-  <si>
-    <t>мой</t>
-  </si>
-  <si>
-    <t>my, mine (masc.)</t>
-  </si>
-  <si>
-    <t>moje</t>
-  </si>
-  <si>
-    <t>моя, моє, мої</t>
-  </si>
-  <si>
-    <t>моя, мое, мои</t>
-  </si>
-  <si>
-    <t>my, mine (fem., neut., pl.)</t>
-  </si>
-  <si>
-    <t>má</t>
-  </si>
-  <si>
-    <t>моя</t>
-  </si>
-  <si>
-    <t>my, mine (fem.)</t>
-  </si>
-  <si>
-    <t>mé</t>
-  </si>
-  <si>
-    <t>моє</t>
-  </si>
-  <si>
-    <t>мое</t>
-  </si>
-  <si>
-    <t>my, mine (neut.)</t>
-  </si>
-  <si>
-    <t>muzika</t>
-  </si>
-  <si>
-    <t>у гостях, на візиті</t>
-  </si>
-  <si>
-    <t>в гостях, на визите</t>
-  </si>
-  <si>
-    <t>on a visit, visiting</t>
-  </si>
-  <si>
-    <t>náš</t>
-  </si>
-  <si>
-    <t>наш</t>
-  </si>
-  <si>
-    <t>our, ours (masc.)</t>
-  </si>
-  <si>
-    <t>naše</t>
-  </si>
-  <si>
-    <t>наша, наше, наші</t>
-  </si>
-  <si>
-    <t>наша, наше, наши</t>
-  </si>
-  <si>
-    <t>our, ours (fem., neut., pl.)</t>
-  </si>
-  <si>
-    <t>návštěva</t>
-  </si>
-  <si>
-    <t>візит, гості, відвідування</t>
-  </si>
-  <si>
-    <t>визит, гости, посещение</t>
-  </si>
-  <si>
-    <t>visit, guests</t>
-  </si>
-  <si>
-    <t>або, чи</t>
-  </si>
-  <si>
-    <t>или, либо</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>щось випити, щось до пиття</t>
-  </si>
-  <si>
-    <t>что-нибудь выпить, что-то к питью</t>
-  </si>
-  <si>
-    <t>something to drink</t>
-  </si>
-  <si>
-    <t>nějaký</t>
-  </si>
-  <si>
-    <t>якийсь, деякий</t>
-  </si>
-  <si>
-    <t>какой-то, некоторый</t>
-  </si>
-  <si>
-    <t>some, any, a certain</t>
-  </si>
-  <si>
-    <t>nějaká</t>
-  </si>
-  <si>
-    <t>якась, деяка</t>
-  </si>
-  <si>
-    <t>какая-то, некоторая</t>
-  </si>
-  <si>
-    <t>nějaké</t>
-  </si>
-  <si>
-    <t>якесь, деяке</t>
-  </si>
-  <si>
-    <t>какое-то, некоторое</t>
-  </si>
-  <si>
-    <t>Нема за що., Прошу.</t>
-  </si>
-  <si>
-    <t>Не за что., Пожалуйста.</t>
-  </si>
-  <si>
-    <t>You're welcome., Don't mention it.</t>
-  </si>
-  <si>
-    <t>neperlivý</t>
-  </si>
-  <si>
-    <t>негазований, нешипучий</t>
-  </si>
-  <si>
-    <t>негазированный</t>
-  </si>
-  <si>
-    <t>still, non-sparkling</t>
-  </si>
-  <si>
-    <t>neperlivá</t>
-  </si>
-  <si>
-    <t>негазована, нешипуча</t>
-  </si>
-  <si>
-    <t>негазированная</t>
-  </si>
-  <si>
-    <t>neperlivé</t>
-  </si>
-  <si>
-    <t>негазоване, нешипуче</t>
-  </si>
-  <si>
-    <t>негазированное</t>
-  </si>
-  <si>
-    <t>Нічого не сталося., Нічого страшного.</t>
-  </si>
-  <si>
-    <t>Ничего не случилось., Ничего страшного.</t>
-  </si>
-  <si>
-    <t>Nothing happened., It's okay.</t>
-  </si>
-  <si>
-    <t>objednat</t>
-  </si>
-  <si>
-    <t>замовити</t>
-  </si>
-  <si>
-    <t>заказать</t>
-  </si>
-  <si>
-    <t>to order</t>
-  </si>
-  <si>
-    <t>objednat si</t>
-  </si>
-  <si>
-    <t>замовити собі</t>
-  </si>
-  <si>
-    <t>заказать себе</t>
-  </si>
-  <si>
-    <t>to order (for oneself)</t>
-  </si>
-  <si>
-    <t>відпочивати</t>
-  </si>
-  <si>
-    <t>отдыхать</t>
-  </si>
-  <si>
-    <t>to rest, to relax</t>
-  </si>
-  <si>
-    <t>To je OK.</t>
-  </si>
-  <si>
-    <t>Це добре., Це о'кей.</t>
-  </si>
-  <si>
-    <t>Это хорошо., Это окей.</t>
-  </si>
-  <si>
-    <t>That's okay., It's fine.</t>
-  </si>
-  <si>
-    <t>OK.</t>
-  </si>
-  <si>
-    <t>О'кей, Добре.</t>
-  </si>
-  <si>
-    <t>Окей, Хорошо.</t>
-  </si>
-  <si>
-    <t>Okay, Fine.</t>
-  </si>
-  <si>
-    <t>Вибачте., Перепрошую.</t>
-  </si>
-  <si>
-    <t>Извините., Прошу прощения.</t>
-  </si>
-  <si>
-    <t>I apologize., I'm sorry.</t>
-  </si>
-  <si>
-    <t>otázka</t>
-  </si>
-  <si>
-    <t>питання, запитання</t>
-  </si>
-  <si>
-    <t>вопрос</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>otec</t>
-  </si>
-  <si>
-    <t>батько, тато</t>
-  </si>
-  <si>
-    <t>отец, папа</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>ovoce</t>
-  </si>
-  <si>
-    <t>фрукти, плоди</t>
-  </si>
-  <si>
-    <t>фрукты, плоды</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>ovocný</t>
-  </si>
-  <si>
-    <t>фруктовий</t>
-  </si>
-  <si>
-    <t>фруктовый</t>
-  </si>
-  <si>
-    <t>fruit (adj.)</t>
-  </si>
-  <si>
-    <t>ovocná</t>
-  </si>
-  <si>
-    <t>фруктова</t>
-  </si>
-  <si>
-    <t>фруктовая</t>
-  </si>
-  <si>
-    <t>ovocné</t>
-  </si>
-  <si>
-    <t>фруктове</t>
-  </si>
-  <si>
-    <t>фруктовое</t>
-  </si>
-  <si>
-    <t>потім, тоді, далі</t>
-  </si>
-  <si>
-    <t>потом, затем, дальше</t>
-  </si>
-  <si>
-    <t>then, after that, next</t>
-  </si>
-  <si>
-    <t>partner</t>
-  </si>
-  <si>
-    <t>партнер, співрозмовник</t>
-  </si>
-  <si>
-    <t>партнер</t>
-  </si>
-  <si>
-    <t>partner, companion (male)</t>
-  </si>
-  <si>
-    <t>partnerka</t>
-  </si>
-  <si>
-    <t>партнерка, співрозмовниця</t>
-  </si>
-  <si>
-    <t>партнерша</t>
-  </si>
-  <si>
-    <t>partner, companion (female)</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>вечірка, паті</t>
-  </si>
-  <si>
-    <t>вечеринка, пати</t>
-  </si>
-  <si>
-    <t>perlivý</t>
-  </si>
-  <si>
-    <t>газований, шипучий</t>
-  </si>
-  <si>
-    <t>газированный, шипучий</t>
-  </si>
-  <si>
-    <t>sparkling, fizzy</t>
-  </si>
-  <si>
-    <t>perlivá</t>
-  </si>
-  <si>
-    <t>газована, шипуча</t>
-  </si>
-  <si>
-    <t>газированная, шипучая</t>
-  </si>
-  <si>
-    <t>perlivé</t>
-  </si>
-  <si>
-    <t>газоване, шипуче</t>
-  </si>
-  <si>
-    <t>газированное, шипучее</t>
-  </si>
-  <si>
-    <t>pes</t>
-  </si>
-  <si>
-    <t>собака, пес</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>Ты прав., Ты права.</t>
+  </si>
+  <si>
+    <t>Вы правы.</t>
+  </si>
+  <si>
+    <t>You are right. (formal)</t>
+  </si>
+  <si>
+    <t>(Ž) matka</t>
+  </si>
+  <si>
+    <t>мати, мама</t>
+  </si>
+  <si>
+    <t>мать, мама</t>
+  </si>
+  <si>
+    <t>(M) mít rád</t>
+  </si>
+  <si>
+    <t>любити (когось, щось)</t>
+  </si>
+  <si>
+    <t>любить (кого-то, что-то)</t>
+  </si>
+  <si>
+    <t>to like, to love (male)</t>
+  </si>
+  <si>
+    <t>(Ž) mít ráda</t>
+  </si>
+  <si>
+    <t>to like, to love (female)</t>
+  </si>
+  <si>
+    <t>мати справи, поживати</t>
+  </si>
+  <si>
+    <t>поживать, (иметь) дела</t>
+  </si>
+  <si>
+    <t>to be (how one is doing)</t>
+  </si>
+  <si>
+    <t>мати</t>
+  </si>
+  <si>
+    <t>иметь</t>
+  </si>
+  <si>
+    <t>я маю, у мене є</t>
+  </si>
+  <si>
+    <t>(я) имею, у меня есть</t>
+  </si>
+  <si>
+    <t>(S) mléko</t>
+  </si>
+  <si>
+    <t>(S) moře</t>
+  </si>
+  <si>
+    <t>(M) můj</t>
+  </si>
+  <si>
+    <t>my, mine (male)</t>
+  </si>
+  <si>
+    <t>(Ž) moje</t>
+  </si>
+  <si>
+    <t>my, mine (female)</t>
+  </si>
+  <si>
+    <t>(Ž) má</t>
+  </si>
+  <si>
+    <t>моя (коротка форма)</t>
+  </si>
+  <si>
+    <t>(S) mé</t>
+  </si>
+  <si>
+    <t>моё</t>
+  </si>
+  <si>
+    <t>my, mine (neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) muzika</t>
+  </si>
+  <si>
+    <t>na (Ž) návštěvě</t>
+  </si>
+  <si>
+    <t>в гостях, у гостях</t>
+  </si>
+  <si>
+    <t>в гостях</t>
+  </si>
+  <si>
+    <t>(M) náš</t>
+  </si>
+  <si>
+    <t>our, ours (male)</t>
+  </si>
+  <si>
+    <t>(Ž) naše</t>
+  </si>
+  <si>
+    <t>наша</t>
+  </si>
+  <si>
+    <t>our, ours (female)</t>
+  </si>
+  <si>
+    <t>(Ž) návštěva</t>
+  </si>
+  <si>
+    <t>візит, гості</t>
+  </si>
+  <si>
+    <t>визит, гости</t>
+  </si>
+  <si>
+    <t>visit, visitor(s)</t>
+  </si>
+  <si>
+    <t>něco k (S) pití</t>
+  </si>
+  <si>
+    <t>щось попити, щось з напоїв</t>
+  </si>
+  <si>
+    <t>что-нибудь попить, что-то из напитков</t>
+  </si>
+  <si>
+    <t>(M) nějaký</t>
+  </si>
+  <si>
+    <t>якийсь</t>
+  </si>
+  <si>
+    <t>какой-то, некий</t>
+  </si>
+  <si>
+    <t>some, any (male)</t>
+  </si>
+  <si>
+    <t>(Ž) nějaká</t>
+  </si>
+  <si>
+    <t>якась</t>
+  </si>
+  <si>
+    <t>какая-то, некая</t>
+  </si>
+  <si>
+    <t>some, any (female)</t>
+  </si>
+  <si>
+    <t>(S) nějaké</t>
+  </si>
+  <si>
+    <t>якесь</t>
+  </si>
+  <si>
+    <t>какое-то, некое</t>
+  </si>
+  <si>
+    <t>some, any (neuter)</t>
+  </si>
+  <si>
+    <t>(M) neperlivý</t>
+  </si>
+  <si>
+    <t>негазований</t>
+  </si>
+  <si>
+    <t>still, non-carbonated (male)</t>
+  </si>
+  <si>
+    <t>(Ž) neperlivá</t>
+  </si>
+  <si>
+    <t>негазована</t>
+  </si>
+  <si>
+    <t>still, non-carbonated (female)</t>
+  </si>
+  <si>
+    <t>(S) neperlivé</t>
+  </si>
+  <si>
+    <t>негазоване</t>
+  </si>
+  <si>
+    <t>still, non-carbonated (neuter)</t>
+  </si>
+  <si>
+    <t>No problem., It's okay.</t>
+  </si>
+  <si>
+    <t>to order (something specific)</t>
+  </si>
+  <si>
+    <t>замовити (собі)</t>
+  </si>
+  <si>
+    <t>заказать (себе)</t>
+  </si>
+  <si>
+    <t>Це нормально., Все гаразд.</t>
+  </si>
+  <si>
+    <t>Это ОК., Всё в порядке.</t>
+  </si>
+  <si>
+    <t>That's OK.</t>
+  </si>
+  <si>
+    <t>ОК., Гаразд., Добре.</t>
+  </si>
+  <si>
+    <t>ОК., Ладно., Хорошо.</t>
+  </si>
+  <si>
+    <t>Вибачаюся., Перепрошую.</t>
+  </si>
+  <si>
+    <t>Извиняюсь., Прошу прощения.</t>
+  </si>
+  <si>
+    <t>I'm sorry., I apologize.</t>
+  </si>
+  <si>
+    <t>(Ž) otázka</t>
+  </si>
+  <si>
+    <t>(M) otec</t>
+  </si>
+  <si>
+    <t>(S) ovoce</t>
+  </si>
+  <si>
+    <t>фрукти (збірн.)</t>
+  </si>
+  <si>
+    <t>фрукты (собир.)</t>
+  </si>
+  <si>
+    <t>(M) ovocný</t>
+  </si>
+  <si>
+    <t>fruit (adj)</t>
+  </si>
+  <si>
+    <t>(Ž) ovocná</t>
+  </si>
+  <si>
+    <t>(S) ovocné</t>
+  </si>
+  <si>
+    <t>потім, тоді</t>
+  </si>
+  <si>
+    <t>потом, затем</t>
+  </si>
+  <si>
+    <t>then, afterwards</t>
+  </si>
+  <si>
+    <t>(M) partner</t>
+  </si>
+  <si>
+    <t>партнёр</t>
+  </si>
+  <si>
+    <t>partner (male)</t>
+  </si>
+  <si>
+    <t>(Ž) partnerka</t>
+  </si>
+  <si>
+    <t>партнерка</t>
+  </si>
+  <si>
+    <t>партнёрша</t>
+  </si>
+  <si>
+    <t>partner (female)</t>
+  </si>
+  <si>
+    <t>(Ž) party</t>
+  </si>
+  <si>
+    <t>вечірка, тусовка</t>
+  </si>
+  <si>
+    <t>вечеринка, тусовка</t>
+  </si>
+  <si>
+    <t>(M) perlivý</t>
+  </si>
+  <si>
+    <t>газований</t>
+  </si>
+  <si>
+    <t>газированный</t>
+  </si>
+  <si>
+    <t>sparkling, carbonated (male)</t>
+  </si>
+  <si>
+    <t>(Ž) perlivá</t>
+  </si>
+  <si>
+    <t>газована</t>
+  </si>
+  <si>
+    <t>газированная</t>
+  </si>
+  <si>
+    <t>sparkling, carbonated (female)</t>
+  </si>
+  <si>
+    <t>(S) perlivé</t>
+  </si>
+  <si>
+    <t>газоване</t>
+  </si>
+  <si>
+    <t>газированное</t>
+  </si>
+  <si>
+    <t>sparkling, carbonated (neuter)</t>
+  </si>
+  <si>
+    <t>(M) pes</t>
+  </si>
+  <si>
+    <t>пес, собака</t>
+  </si>
+  <si>
+    <t>пёс, собака</t>
+  </si>
+  <si>
+    <t>dog (male)</t>
   </si>
 </sst>
 </file>
@@ -1994,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,27 +2071,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,83 +2099,83 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,1945 +2183,1973 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>246</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>58</v>
+        <v>249</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>251</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>256</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>270</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>271</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>93</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>273</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>279</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>118</v>
+        <v>286</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>119</v>
+        <v>288</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>289</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>292</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>122</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>134</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>148</v>
+        <v>73</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>156</v>
+        <v>307</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>157</v>
+        <v>309</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>164</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>170</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>172</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>4</v>
+        <v>314</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>173</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>175</v>
+        <v>316</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>177</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>183</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>184</v>
+        <v>323</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>187</v>
+        <v>91</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>188</v>
+        <v>324</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>194</v>
+        <v>97</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>197</v>
+        <v>328</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>204</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>204</v>
+        <v>105</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>209</v>
+        <v>333</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>210</v>
+        <v>334</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>211</v>
+        <v>336</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>214</v>
+        <v>338</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>215</v>
+        <v>340</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>216</v>
+        <v>341</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>218</v>
+        <v>342</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>222</v>
+        <v>107</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>7</v>
+        <v>348</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>228</v>
+        <v>350</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>229</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>233</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>235</v>
+        <v>352</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>237</v>
+        <v>353</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>240</v>
+        <v>357</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>237</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>242</v>
+        <v>359</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>237</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>244</v>
+        <v>362</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>247</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>248</v>
+        <v>366</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>250</v>
+        <v>368</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>251</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>254</v>
+        <v>115</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>255</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>256</v>
+        <v>371</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>257</v>
+        <v>372</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>258</v>
+        <v>117</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>259</v>
+        <v>373</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>262</v>
+        <v>120</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>263</v>
+        <v>374</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>266</v>
+        <v>120</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>8</v>
+        <v>375</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>269</v>
+        <v>123</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>9</v>
+        <v>376</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>272</v>
+        <v>125</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>273</v>
+        <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>274</v>
+        <v>378</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>275</v>
+        <v>379</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>279</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>282</v>
+        <v>382</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>284</v>
+        <v>384</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>286</v>
+        <v>131</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>287</v>
+        <v>385</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>293</v>
+        <v>388</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>296</v>
+        <v>137</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>297</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>299</v>
+        <v>391</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>300</v>
+        <v>392</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>301</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>302</v>
+        <v>393</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>305</v>
+        <v>140</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>306</v>
+        <v>395</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>307</v>
+        <v>142</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>310</v>
+        <v>372</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>311</v>
+        <v>117</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>312</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>314</v>
+        <v>145</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>315</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>319</v>
+        <v>401</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>320</v>
+        <v>403</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>323</v>
+        <v>405</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>324</v>
+        <v>407</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>325</v>
+        <v>408</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>326</v>
+        <v>409</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>327</v>
+        <v>410</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>330</v>
+        <v>412</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>332</v>
+        <v>149</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>334</v>
+        <v>149</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>338</v>
+        <v>152</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>338</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>342</v>
+        <v>419</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>343</v>
+        <v>154</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>344</v>
+        <v>420</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>338</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>345</v>
+        <v>422</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>348</v>
+        <v>423</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>351</v>
+        <v>426</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>352</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>353</v>
+        <v>428</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>354</v>
+        <v>157</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>356</v>
+        <v>158</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>357</v>
+        <v>429</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>359</v>
+        <v>161</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>362</v>
+        <v>160</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>364</v>
+        <v>432</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>365</v>
+        <v>434</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>367</v>
+        <v>162</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>368</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>372</v>
+        <v>164</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>374</v>
+        <v>166</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>376</v>
+        <v>167</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>377</v>
+        <v>169</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>381</v>
+        <v>171</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>382</v>
+        <v>172</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>384</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>394</v>
+        <v>448</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>398</v>
+        <v>453</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>399</v>
+        <v>174</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>401</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>402</v>
+        <v>176</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>404</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>408</v>
+        <v>178</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>412</v>
+        <v>180</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>414</v>
+        <v>182</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>414</v>
+        <v>183</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>417</v>
+        <v>184</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>419</v>
+        <v>184</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>245</v>
+        <v>466</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>247</v>
+        <v>184</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>421</v>
+        <v>185</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>425</v>
+        <v>114</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>426</v>
+        <v>115</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>430</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>432</v>
+        <v>187</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>433</v>
+        <v>187</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>13</v>
+        <v>476</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>14</v>
+        <v>479</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>284</v>
+        <v>480</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>444</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>458</v>
+        <v>13</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>459</v>
+        <v>192</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>460</v>
+        <v>193</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>457</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>463</v>
+        <v>195</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>17</v>
+        <v>501</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>465</v>
+        <v>196</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>471</v>
+        <v>14</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>472</v>
+        <v>198</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>473</v>
+        <v>199</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>477</v>
+        <v>202</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>478</v>
+        <v>203</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>481</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>482</v>
+        <v>15</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>483</v>
+        <v>205</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>484</v>
+        <v>206</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>19</v>
+        <v>208</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>488</v>
+        <v>512</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>489</v>
+        <v>209</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>493</v>
+        <v>16</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>496</v>
+        <v>517</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>498</v>
+        <v>210</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>499</v>
+        <v>211</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>500</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>502</v>
+        <v>213</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>503</v>
+        <v>214</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>504</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>504</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>509</v>
+        <v>217</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>510</v>
+        <v>218</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>20</v>
+        <v>526</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>511</v>
+        <v>219</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>513</v>
+        <v>220</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>515</v>
+        <v>221</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>517</v>
+        <v>222</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>518</v>
+        <v>17</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>521</v>
+        <v>529</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>523</v>
+        <v>223</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>528</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>528</v>
+        <v>543</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>537</v>
+        <v>547</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
